--- a/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
+++ b/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="0" windowWidth="4080" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="16200" yWindow="0" windowWidth="4080" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="account info" sheetId="2" r:id="rId1"/>
@@ -1392,23 +1392,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[H-V] 7268*192/7300*192
-[H-V] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>B3-2</t>
     </r>
     <r>
@@ -1457,23 +1440,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[H-V] 6164*192/6200*192
-[H-V] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>C4-1</t>
     </r>
     <r>
@@ -1859,6 +1825,16 @@
   </si>
   <si>
     <t>display size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 7300*192(7268*192)
+[H-V] 4550*3362(4495*3323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 6200*192(6164*192)
+[H-V] 4550*2269(4495*2248)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1923,7 +1899,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1957,12 +1933,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,19 +2067,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2531,7 +2501,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2567,7 +2537,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2615,7 +2585,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2651,7 +2621,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2699,7 +2669,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2743,7 +2713,7 @@
         <v>80</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2787,7 +2757,7 @@
         <v>86</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3012,8 +2982,8 @@
   </sheetPr>
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O2" s="21"/>
     </row>
@@ -3377,8 +3347,8 @@
       <c r="M8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -3421,8 +3391,8 @@
       <c r="M9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -3465,8 +3435,8 @@
       <c r="M10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -3557,8 +3527,8 @@
       <c r="M12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -3601,8 +3571,8 @@
       <c r="M13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3645,8 +3615,8 @@
       <c r="M14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -3785,8 +3755,8 @@
       <c r="M17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -3829,8 +3799,8 @@
       <c r="M18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -3873,8 +3843,8 @@
       <c r="M19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -3965,8 +3935,8 @@
       <c r="M21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -4009,8 +3979,8 @@
       <c r="M22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -4053,8 +4023,8 @@
       <c r="M23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -4193,8 +4163,8 @@
       <c r="M26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -4237,8 +4207,8 @@
       <c r="M27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -4281,8 +4251,8 @@
       <c r="M28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -4325,8 +4295,8 @@
       <c r="M29" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -4369,8 +4339,8 @@
       <c r="M30" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -4726,7 +4696,7 @@
         <v>170</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="O40" s="23" t="s">
         <v>124</v>
@@ -4766,7 +4736,7 @@
         <v>92</v>
       </c>
       <c r="N41" s="27"/>
-      <c r="O41" s="24"/>
+      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -4802,7 +4772,7 @@
         <v>89</v>
       </c>
       <c r="N42" s="27"/>
-      <c r="O42" s="24"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
@@ -4838,7 +4808,7 @@
         <v>93</v>
       </c>
       <c r="N43" s="27"/>
-      <c r="O43" s="24"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
@@ -4871,10 +4841,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N44" s="28"/>
-      <c r="O44" s="25"/>
+      <c r="O44" s="24"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -4947,10 +4917,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
+        <v>172</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -4985,8 +4955,8 @@
       <c r="M47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -5021,8 +4991,8 @@
       <c r="M48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -5097,8 +5067,8 @@
       <c r="M50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -5131,10 +5101,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+        <v>173</v>
+      </c>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
@@ -5170,7 +5140,7 @@
         <v>94</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="O52" s="23" t="s">
         <v>123</v>
@@ -5210,7 +5180,7 @@
         <v>95</v>
       </c>
       <c r="N53" s="27"/>
-      <c r="O53" s="24"/>
+      <c r="O53" s="25"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -5246,7 +5216,7 @@
         <v>96</v>
       </c>
       <c r="N54" s="27"/>
-      <c r="O54" s="24"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
@@ -5282,7 +5252,7 @@
         <v>97</v>
       </c>
       <c r="N55" s="28"/>
-      <c r="O55" s="25"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
@@ -5315,7 +5285,7 @@
         <v>47</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>118</v>
@@ -5355,10 +5325,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
+        <v>175</v>
+      </c>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
@@ -5391,7 +5361,7 @@
         <v>47</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>112</v>
@@ -5551,10 +5521,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
+        <v>177</v>
+      </c>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
@@ -5589,8 +5559,8 @@
       <c r="M63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -5625,8 +5595,8 @@
       <c r="M64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -5661,8 +5631,8 @@
       <c r="M65" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
@@ -5697,8 +5667,8 @@
       <c r="M66" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
@@ -5731,7 +5701,7 @@
         <v>47</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N67" s="23" t="s">
         <v>115</v>
@@ -5773,8 +5743,8 @@
       <c r="M68" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
@@ -5807,7 +5777,7 @@
         <v>47</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>108</v>
@@ -5847,7 +5817,7 @@
         <v>47</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>108</v>
@@ -5927,7 +5897,7 @@
         <v>47</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N72" s="23" t="s">
         <v>114</v>
@@ -5967,10 +5937,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
+        <v>182</v>
+      </c>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
@@ -6003,10 +5973,10 @@
         <v>47</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
@@ -6039,10 +6009,10 @@
         <v>47</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
+        <v>184</v>
+      </c>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -6075,7 +6045,7 @@
         <v>47</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>108</v>
@@ -6115,7 +6085,7 @@
         <v>47</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>114</v>
@@ -6155,10 +6125,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
+        <v>187</v>
+      </c>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
@@ -6191,10 +6161,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
+        <v>188</v>
+      </c>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
@@ -6227,10 +6197,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
+        <v>189</v>
+      </c>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -9634,24 +9604,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O61:O66"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="N40:N44"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N77:N80"/>
-    <mergeCell ref="N61:N66"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="N7:N10"/>
     <mergeCell ref="N11:N14"/>
     <mergeCell ref="N16:N19"/>
     <mergeCell ref="N20:N23"/>
@@ -9660,12 +9618,24 @@
     <mergeCell ref="O16:O19"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="O25:O30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="N77:N80"/>
+    <mergeCell ref="N61:N66"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="N40:N44"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O61:O66"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="O77:O80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
+++ b/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="0" windowWidth="4080" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="4080" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="account info" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="214">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,6 +1835,62 @@
   <si>
     <t>[H-V] 6200*192(6164*192)
 [H-V] 4550*2269(4495*2248)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopfront-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopfront-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop-middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 2160*3820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺中央（左上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺中央（右上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺中央（右下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺中央（左下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺门面左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺门面右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺门背景墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 320*1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 1536*320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2002,7 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2067,10 +2123,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,6 +2138,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2982,8 +3039,8 @@
   </sheetPr>
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52:N55"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3347,8 +3404,8 @@
       <c r="M8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -3391,8 +3448,8 @@
       <c r="M9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -3435,8 +3492,8 @@
       <c r="M10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -3527,8 +3584,8 @@
       <c r="M12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -3571,8 +3628,8 @@
       <c r="M13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3615,8 +3672,8 @@
       <c r="M14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -3755,8 +3812,8 @@
       <c r="M17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -3799,8 +3856,8 @@
       <c r="M18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -3843,8 +3900,8 @@
       <c r="M19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -3935,8 +3992,8 @@
       <c r="M21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -3979,8 +4036,8 @@
       <c r="M22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -4023,8 +4080,8 @@
       <c r="M23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -4163,8 +4220,8 @@
       <c r="M26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -4207,8 +4264,8 @@
       <c r="M27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -4251,8 +4308,8 @@
       <c r="M28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -4295,8 +4352,8 @@
       <c r="M29" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -4339,8 +4396,8 @@
       <c r="M30" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -4414,9 +4471,15 @@
       <c r="L32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="M32" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
@@ -4448,9 +4511,15 @@
       <c r="L33" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="M33" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
@@ -4482,9 +4551,15 @@
       <c r="L34" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="M34" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
@@ -4516,9 +4591,15 @@
       <c r="L35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="M35" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
@@ -4550,9 +4631,11 @@
       <c r="L36" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="M36" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
@@ -4584,9 +4667,11 @@
       <c r="L37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="M37" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -4618,9 +4703,11 @@
       <c r="L38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="M38" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
@@ -4736,7 +4823,7 @@
         <v>92</v>
       </c>
       <c r="N41" s="27"/>
-      <c r="O41" s="25"/>
+      <c r="O41" s="24"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -4772,7 +4859,7 @@
         <v>89</v>
       </c>
       <c r="N42" s="27"/>
-      <c r="O42" s="25"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
@@ -4808,7 +4895,7 @@
         <v>93</v>
       </c>
       <c r="N43" s="27"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
@@ -4844,7 +4931,7 @@
         <v>171</v>
       </c>
       <c r="N44" s="28"/>
-      <c r="O44" s="24"/>
+      <c r="O44" s="25"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -4919,8 +5006,8 @@
       <c r="M46" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -4955,8 +5042,8 @@
       <c r="M47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -4991,8 +5078,8 @@
       <c r="M48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -5067,8 +5154,8 @@
       <c r="M50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -5103,8 +5190,8 @@
       <c r="M51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
@@ -5180,7 +5267,7 @@
         <v>95</v>
       </c>
       <c r="N53" s="27"/>
-      <c r="O53" s="25"/>
+      <c r="O53" s="24"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -5216,7 +5303,7 @@
         <v>96</v>
       </c>
       <c r="N54" s="27"/>
-      <c r="O54" s="25"/>
+      <c r="O54" s="24"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
@@ -5252,7 +5339,7 @@
         <v>97</v>
       </c>
       <c r="N55" s="28"/>
-      <c r="O55" s="24"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
@@ -5327,8 +5414,8 @@
       <c r="M57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
@@ -5523,8 +5610,8 @@
       <c r="M62" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
@@ -5559,8 +5646,8 @@
       <c r="M63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -5595,8 +5682,8 @@
       <c r="M64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -5631,8 +5718,8 @@
       <c r="M65" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
@@ -5667,8 +5754,8 @@
       <c r="M66" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
@@ -5743,8 +5830,8 @@
       <c r="M68" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
@@ -5939,8 +6026,8 @@
       <c r="M73" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
@@ -5975,8 +6062,8 @@
       <c r="M74" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
@@ -6011,8 +6098,8 @@
       <c r="M75" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -6127,8 +6214,8 @@
       <c r="M78" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
@@ -6163,8 +6250,8 @@
       <c r="M79" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
@@ -6199,8 +6286,8 @@
       <c r="M80" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -9603,13 +9690,27 @@
       <c r="O250" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="N7:N10"/>
+  <mergeCells count="34">
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O61:O66"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="N40:N44"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="N77:N80"/>
+    <mergeCell ref="N61:N66"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="N56:N57"/>
     <mergeCell ref="N11:N14"/>
     <mergeCell ref="N16:N19"/>
     <mergeCell ref="N20:N23"/>
@@ -9618,24 +9719,12 @@
     <mergeCell ref="O16:O19"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="O25:O30"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N77:N80"/>
-    <mergeCell ref="N61:N66"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="N40:N44"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O61:O66"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="N7:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
+++ b/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="4080" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="4320" yWindow="0" windowWidth="4080" windowHeight="7788" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="account info" sheetId="2" r:id="rId1"/>
     <sheet name="equipment info" sheetId="3" r:id="rId2"/>
+    <sheet name="rom version" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="229">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,12 +386,1114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LED*29 LCD*12</t>
+    <r>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B4-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙侧面（上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B4-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙侧面（下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏（右）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B3-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏（上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏（右）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏（左）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙中窗格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙右窗格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E1-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙楼梯侧（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙楼梯侧（左上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E1-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙楼梯侧（左下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙楼梯侧（中下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E1-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙楼梯侧（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二层手扶电梯侧（下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B5-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一层大门顶部（左）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B5-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一层大门顶部（中）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 1080*1920 9:16</t>
+  </si>
+  <si>
+    <t>[H-V] 1080*1920 9:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 1152*608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B4-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙侧面（中下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 512*896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 512*896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 2160*3840 9:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 1920*1520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 2504*2720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 4224*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 3328*416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[H-V] 1088*3104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1  exterior wall facade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4 outer wall side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1-C3 curving screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-B3 curving screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5 1F gate porch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4 1F gate porch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5 outer wall side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6 outer wall side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7 outer wall side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1 outer wall stairway side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2 2F escalator side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F staircase side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F Atrium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F Atrium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F elevator side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F elevator side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉卡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼门店门头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彤兴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼大门左侧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼大门右侧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（左上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（左下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（右下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彤兴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（左上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（左下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（右下）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（左上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（左下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙左侧（右下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（左上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（左下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼装饰墙右侧（右下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁拼接屏（左上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁拼接屏（左下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁拼接屏（中上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁拼接屏（中下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁拼接屏（右上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楼电梯旁拼接屏（右下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏（左）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B3-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾边屏（下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B4-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙侧面（中上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B5-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一层大门顶部（右）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C4-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一层大门顶部（左）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C4-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一层大门顶部（右）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙左窗格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外墙楼梯侧（中上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二层手扶电梯侧（上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -406,1136 +1509,6 @@
   </si>
   <si>
     <r>
-      <t>A1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B4-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙侧面（上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B4-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙侧面（下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏（右）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B3-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏（上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏（右）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏（左）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙中窗格</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙右窗格</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E1-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙楼梯侧（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙楼梯侧（左上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E1-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙楼梯侧（左下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E1-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙楼梯侧（中下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E1-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙楼梯侧（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E2-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二层手扶电梯侧（下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B5-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一层大门顶部（左）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B5-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一层大门顶部（中）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 1080*1920 9:16</t>
-  </si>
-  <si>
-    <t>[H-V] 1080*1920 9:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 1152*608</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B4-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙侧面（中下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 512*896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 512*896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 2160*3840 9:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 1920*1520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 2504*2720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 4224*256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 3328*416</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 1088*3104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[H-V] 1080*1920 9:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1  exterior wall facade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4 outer wall side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1-C3 curving screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1-B3 curving screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B5 1F gate porch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4 1F gate porch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5 outer wall side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6 outer wall side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7 outer wall side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1 outer wall stairway side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2 2F escalator side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1F staircase side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2F staircase side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2F Atrium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3F Atrium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2F elevator side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3F elevator side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吉卡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼门店门头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>彤兴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼大门左侧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼大门右侧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（左上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（左下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（右下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>彤兴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（左上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（左下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（右下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（左上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（左下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙左侧（右下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（左上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（左下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼装饰墙右侧（右下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁拼接屏（左上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁拼接屏（左下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁拼接屏（中上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁拼接屏（中下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁拼接屏（右上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼电梯旁拼接屏（右下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备机</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏（左）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B3-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾边屏（下）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B4-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙侧面（中上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B5-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一层大门顶部（右）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C4-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一层大门顶部（左）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C4-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一层大门顶部（右）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙左窗格</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外墙楼梯侧（中上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E2-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二层手扶电梯侧（上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼楼梯旁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>2</t>
     </r>
     <r>
@@ -1792,38 +1765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门店账号（中国湖北武汉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>K11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>店）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>display size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1891,6 +1832,85 @@
   </si>
   <si>
     <t>[H-V] 1536*320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED*30 LCD*11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0020028798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K11 MUSEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店账号（中国湖北武汉汉街店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levis123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motherboard</t>
+  </si>
+  <si>
+    <t>media box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非中性版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installed os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installed rom version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest rom version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1975,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1992,8 +2012,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2053,12 +2079,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2105,6 +2142,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,7 +2189,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2423,10 +2493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -2444,34 +2514,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2581,7 @@
       <c r="N2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="22"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -2558,7 +2628,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2594,7 +2664,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2642,7 +2712,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2651,34 +2721,46 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="O6" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2686,20 +2768,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
+      <c r="B7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>54</v>
@@ -2707,26 +2789,22 @@
       <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="M7" s="5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2735,42 +2813,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="5">
-        <v>7</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2779,19 +2849,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>54</v>
@@ -2799,22 +2869,26 @@
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M9" s="5">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2829,7 +2903,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2849,7 +2923,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -2869,7 +2943,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2889,7 +2963,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2909,7 +2983,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2929,7 +3003,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2942,14 +3016,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2969,7 +3045,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2989,7 +3065,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -3009,13 +3085,16 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3037,10 +3116,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O250"/>
+  <dimension ref="A1:O249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35:N38"/>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3056,32 +3135,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
@@ -3119,9 +3198,9 @@
         <v>17</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="O2" s="21"/>
+        <v>192</v>
+      </c>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -3150,7 +3229,7 @@
         <v>3288</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>72</v>
@@ -3162,7 +3241,7 @@
         <v>46</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>41</v>
@@ -3173,7 +3252,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A250" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A249" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3198,7 +3277,7 @@
         <v>3288</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>68</v>
@@ -3210,7 +3289,7 @@
         <v>47</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>40</v>
@@ -3246,7 +3325,7 @@
         <v>3288</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>68</v>
@@ -3258,7 +3337,7 @@
         <v>47</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>40</v>
@@ -3294,7 +3373,7 @@
         <v>3288</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>69</v>
@@ -3306,10 +3385,10 @@
         <v>47</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>59</v>
@@ -3342,7 +3421,7 @@
         <v>3288</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>69</v>
@@ -3354,12 +3433,12 @@
         <v>47</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="29" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3390,7 +3469,7 @@
         <v>3288</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>69</v>
@@ -3402,10 +3481,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+        <v>141</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -3434,7 +3513,7 @@
         <v>3288</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>69</v>
@@ -3446,10 +3525,10 @@
         <v>47</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+        <v>142</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -3478,7 +3557,7 @@
         <v>3288</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>69</v>
@@ -3490,10 +3569,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -3522,7 +3601,7 @@
         <v>3288</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>69</v>
@@ -3534,12 +3613,12 @@
         <v>47</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="29" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3570,7 +3649,7 @@
         <v>3288</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>69</v>
@@ -3582,10 +3661,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+        <v>146</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -3614,7 +3693,7 @@
         <v>3288</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>69</v>
@@ -3626,10 +3705,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+        <v>147</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3658,7 +3737,7 @@
         <v>3288</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>69</v>
@@ -3670,10 +3749,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+        <v>148</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -3702,7 +3781,7 @@
         <v>3288</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>69</v>
@@ -3714,7 +3793,7 @@
         <v>47</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>37</v>
@@ -3750,7 +3829,7 @@
         <v>3288</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>69</v>
@@ -3762,12 +3841,12 @@
         <v>47</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="29" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3798,7 +3877,7 @@
         <v>3288</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>69</v>
@@ -3810,10 +3889,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+        <v>151</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -3842,7 +3921,7 @@
         <v>3288</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>69</v>
@@ -3854,10 +3933,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+        <v>152</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -3886,7 +3965,7 @@
         <v>3288</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>69</v>
@@ -3898,10 +3977,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -3930,7 +4009,7 @@
         <v>3288</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>69</v>
@@ -3942,12 +4021,12 @@
         <v>47</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N20" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="N20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3978,7 +4057,7 @@
         <v>3288</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>69</v>
@@ -3990,10 +4069,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+        <v>155</v>
+      </c>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -4022,7 +4101,7 @@
         <v>3288</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>69</v>
@@ -4034,10 +4113,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+        <v>156</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -4066,7 +4145,7 @@
         <v>3288</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>69</v>
@@ -4078,10 +4157,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -4110,7 +4189,7 @@
         <v>3288</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>69</v>
@@ -4122,7 +4201,7 @@
         <v>47</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>37</v>
@@ -4158,7 +4237,7 @@
         <v>3288</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>69</v>
@@ -4170,12 +4249,12 @@
         <v>47</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N25" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4206,7 +4285,7 @@
         <v>3288</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>69</v>
@@ -4218,10 +4297,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -4250,7 +4329,7 @@
         <v>3288</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>69</v>
@@ -4262,10 +4341,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+        <v>161</v>
+      </c>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -4294,7 +4373,7 @@
         <v>3288</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>69</v>
@@ -4306,10 +4385,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+        <v>162</v>
+      </c>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -4338,7 +4417,7 @@
         <v>3288</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>69</v>
@@ -4350,10 +4429,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+        <v>163</v>
+      </c>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -4382,7 +4461,7 @@
         <v>3288</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>69</v>
@@ -4394,10 +4473,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -4422,7 +4501,7 @@
         <v>3288</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="3" t="s">
@@ -4432,7 +4511,7 @@
         <v>47</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>37</v>
@@ -4442,272 +4521,328 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="9">
+      <c r="F32" s="12">
+        <v>154367</v>
+      </c>
+      <c r="G32" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H32" s="37">
         <v>3288</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="I32" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O32" s="3" t="s">
+      <c r="M32" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="35">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="12">
+        <v>114861</v>
+      </c>
+      <c r="G33" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H33" s="37">
+        <v>3288</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="12">
+        <v>154366</v>
+      </c>
+      <c r="G34" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H34" s="37">
+        <v>3288</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="12">
+        <v>119757</v>
+      </c>
+      <c r="G35" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H35" s="37">
+        <v>3288</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="39" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5" t="s">
+      <c r="N35" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="9">
+      <c r="F36" s="12">
+        <v>119756</v>
+      </c>
+      <c r="G36" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H36" s="37">
         <v>3288</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="13" t="s">
+      <c r="I36" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M36" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5" t="s">
+      <c r="C37" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="9">
+      <c r="F37" s="12">
+        <v>119783</v>
+      </c>
+      <c r="G37" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H37" s="37">
         <v>3288</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="13" t="s">
+      <c r="I37" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M37" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="35">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="D38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="12">
+        <v>119773</v>
+      </c>
+      <c r="G38" s="36">
+        <v>43700</v>
+      </c>
+      <c r="H38" s="37">
+        <v>3288</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="39" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="9">
-        <v>3288</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="9">
-        <v>3288</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="9">
-        <v>3288</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="9">
-        <v>3288</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
@@ -4722,13 +4857,13 @@
       <c r="E39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="9">
         <v>3288</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>68</v>
@@ -4740,13 +4875,13 @@
         <v>47</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -4762,13 +4897,13 @@
       <c r="E40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="9">
         <v>3288</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>68</v>
@@ -4780,13 +4915,13 @@
         <v>47</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="O40" s="23" t="s">
-        <v>124</v>
+        <v>166</v>
+      </c>
+      <c r="N40" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -4802,13 +4937,13 @@
       <c r="E41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="9">
         <v>3288</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>68</v>
@@ -4820,10 +4955,10 @@
         <v>47</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N41" s="27"/>
-      <c r="O41" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="N41" s="33"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -4838,13 +4973,13 @@
       <c r="E42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="9">
         <v>3288</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>68</v>
@@ -4856,10 +4991,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N42" s="27"/>
-      <c r="O42" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="N42" s="33"/>
+      <c r="O42" s="30"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
@@ -4874,13 +5009,13 @@
       <c r="E43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="9">
         <v>3288</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>68</v>
@@ -4892,10 +5027,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N43" s="27"/>
-      <c r="O43" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="N43" s="33"/>
+      <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
@@ -4910,13 +5045,13 @@
       <c r="E44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="9">
         <v>3288</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>68</v>
@@ -4928,10 +5063,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="N44" s="34"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -4946,13 +5081,13 @@
       <c r="E45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="9">
         <v>3288</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>68</v>
@@ -4964,13 +5099,13 @@
         <v>47</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N45" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O45" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="O45" s="23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -4986,13 +5121,13 @@
       <c r="E46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="9">
         <v>3288</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>68</v>
@@ -5004,10 +5139,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
+        <v>168</v>
+      </c>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -5022,13 +5157,13 @@
       <c r="E47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="9">
         <v>3288</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>68</v>
@@ -5040,10 +5175,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
+        <v>109</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -5058,13 +5193,13 @@
       <c r="E48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="9">
         <v>3288</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>68</v>
@@ -5076,10 +5211,10 @@
         <v>46</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -5094,13 +5229,13 @@
       <c r="E49" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="9">
         <v>3288</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>68</v>
@@ -5112,13 +5247,13 @@
         <v>47</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="O49" s="23" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5134,13 +5269,13 @@
       <c r="E50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="9">
         <v>3288</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>68</v>
@@ -5152,10 +5287,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -5170,13 +5305,13 @@
       <c r="E51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="9">
         <v>3288</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>68</v>
@@ -5188,10 +5323,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
@@ -5206,13 +5341,13 @@
       <c r="E52" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="9">
         <v>3288</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>68</v>
@@ -5224,13 +5359,13 @@
         <v>47</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N52" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="O52" s="23" t="s">
-        <v>123</v>
+        <v>92</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5246,13 +5381,13 @@
       <c r="E53" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="9">
         <v>3288</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>68</v>
@@ -5264,10 +5399,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N53" s="27"/>
-      <c r="O53" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="N53" s="33"/>
+      <c r="O53" s="30"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -5282,13 +5417,13 @@
       <c r="E54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="9">
         <v>3288</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>68</v>
@@ -5300,10 +5435,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N54" s="27"/>
-      <c r="O54" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="N54" s="33"/>
+      <c r="O54" s="30"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
@@ -5318,13 +5453,13 @@
       <c r="E55" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="9">
         <v>3288</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>68</v>
@@ -5336,10 +5471,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N55" s="28"/>
-      <c r="O55" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="N55" s="34"/>
+      <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
@@ -5354,13 +5489,13 @@
       <c r="E56" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="9">
         <v>3288</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>68</v>
@@ -5372,13 +5507,13 @@
         <v>47</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N56" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="O56" s="23" t="s">
-        <v>126</v>
+        <v>170</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -5394,13 +5529,13 @@
       <c r="E57" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="9">
         <v>3288</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>68</v>
@@ -5412,10 +5547,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
+        <v>171</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
@@ -5430,13 +5565,13 @@
       <c r="E58" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="9">
         <v>3288</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>68</v>
@@ -5448,13 +5583,13 @@
         <v>47</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5470,13 +5605,13 @@
       <c r="E59" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="9">
         <v>3288</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>68</v>
@@ -5488,13 +5623,13 @@
         <v>47</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5510,13 +5645,13 @@
       <c r="E60" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="9">
         <v>3288</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>68</v>
@@ -5528,13 +5663,13 @@
         <v>47</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5550,13 +5685,13 @@
       <c r="E61" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="9">
         <v>3288</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>68</v>
@@ -5568,13 +5703,13 @@
         <v>47</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N61" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="O61" s="23" t="s">
-        <v>130</v>
+        <v>99</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -5590,13 +5725,13 @@
       <c r="E62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="9">
         <v>3288</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>68</v>
@@ -5608,10 +5743,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
+        <v>173</v>
+      </c>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
@@ -5626,13 +5761,13 @@
       <c r="E63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="9">
         <v>3288</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>68</v>
@@ -5644,10 +5779,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -5662,13 +5797,13 @@
       <c r="E64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="9">
         <v>3288</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>68</v>
@@ -5680,10 +5815,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -5698,13 +5833,13 @@
       <c r="E65" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="9">
         <v>3288</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>68</v>
@@ -5716,10 +5851,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
+        <v>101</v>
+      </c>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
@@ -5734,13 +5869,13 @@
       <c r="E66" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="9">
         <v>3288</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>68</v>
@@ -5752,10 +5887,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
@@ -5770,13 +5905,13 @@
       <c r="E67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="9">
         <v>3288</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>68</v>
@@ -5788,13 +5923,13 @@
         <v>47</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O67" s="23" t="s">
-        <v>131</v>
+        <v>174</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -5810,13 +5945,13 @@
       <c r="E68" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="9">
         <v>3288</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>68</v>
@@ -5828,10 +5963,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
@@ -5846,13 +5981,13 @@
       <c r="E69" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="9">
         <v>3288</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>69</v>
@@ -5864,13 +5999,13 @@
         <v>47</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -5886,13 +6021,13 @@
       <c r="E70" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="9">
         <v>3288</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>69</v>
@@ -5904,13 +6039,13 @@
         <v>47</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -5926,13 +6061,13 @@
       <c r="E71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="9">
         <v>3288</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>69</v>
@@ -5944,13 +6079,13 @@
         <v>47</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>133</v>
+        <v>177</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -5966,13 +6101,13 @@
       <c r="E72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="9">
         <v>3288</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>69</v>
@@ -5984,14 +6119,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N72" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="O72" s="23" t="s">
-        <v>134</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
@@ -6006,13 +6137,13 @@
       <c r="E73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="9">
         <v>3288</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>69</v>
@@ -6024,10 +6155,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
+        <v>179</v>
+      </c>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
@@ -6042,13 +6173,13 @@
       <c r="E74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="9">
         <v>3288</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>69</v>
@@ -6060,10 +6191,10 @@
         <v>47</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
@@ -6078,13 +6209,13 @@
       <c r="E75" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="9">
         <v>3288</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>69</v>
@@ -6096,10 +6227,14 @@
         <v>47</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -6114,13 +6249,13 @@
       <c r="E76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="9">
         <v>3288</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>69</v>
@@ -6132,13 +6267,13 @@
         <v>47</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>137</v>
+        <v>182</v>
+      </c>
+      <c r="N76" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -6154,13 +6289,13 @@
       <c r="E77" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="9">
         <v>3288</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>69</v>
@@ -6172,14 +6307,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N77" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="O77" s="23" t="s">
-        <v>135</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
@@ -6194,13 +6325,13 @@
       <c r="E78" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="9">
         <v>3288</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>69</v>
@@ -6212,10 +6343,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
+        <v>184</v>
+      </c>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
@@ -6230,13 +6361,13 @@
       <c r="E79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="9">
         <v>3288</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>69</v>
@@ -6248,10 +6379,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
+        <v>185</v>
+      </c>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
@@ -6260,34 +6391,18 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="9">
-        <v>3288</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L80" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -6298,7 +6413,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="3"/>
       <c r="H81" s="9"/>
       <c r="I81" s="17"/>
@@ -6318,7 +6433,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="3"/>
       <c r="H82" s="9"/>
       <c r="I82" s="17"/>
@@ -6338,7 +6453,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="3"/>
       <c r="H83" s="9"/>
       <c r="I83" s="17"/>
@@ -6358,13 +6473,13 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="5"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="9"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="13"/>
+      <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -6378,7 +6493,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="3"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -6398,7 +6513,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="3"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
@@ -6418,7 +6533,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="3"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
@@ -6438,7 +6553,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="3"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
@@ -6458,7 +6573,7 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="5"/>
       <c r="G89" s="3"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
@@ -6478,7 +6593,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="3"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
@@ -6498,7 +6613,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="3"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
@@ -6518,7 +6633,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="3"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
@@ -6538,7 +6653,7 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="3"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
@@ -6558,7 +6673,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="3"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
@@ -6578,7 +6693,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="3"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
@@ -6598,7 +6713,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="3"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
@@ -6618,7 +6733,7 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="3"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
@@ -6638,7 +6753,7 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="5"/>
       <c r="G98" s="3"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
@@ -6658,7 +6773,7 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="5"/>
       <c r="G99" s="3"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
@@ -6678,7 +6793,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="5"/>
       <c r="G100" s="3"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
@@ -6698,7 +6813,7 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="5"/>
       <c r="G101" s="3"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -6718,7 +6833,7 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="3"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -6738,7 +6853,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="3"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
@@ -6758,7 +6873,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="5"/>
       <c r="G104" s="3"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
@@ -6778,7 +6893,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="3"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -6798,7 +6913,7 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="3"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
@@ -6818,7 +6933,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="3"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
@@ -9669,48 +9784,14 @@
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O61:O66"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="N40:N44"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N77:N80"/>
-    <mergeCell ref="N61:N66"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="N7:N10"/>
     <mergeCell ref="N11:N14"/>
     <mergeCell ref="N16:N19"/>
     <mergeCell ref="N20:N23"/>
@@ -9719,15 +9800,350 @@
     <mergeCell ref="O16:O19"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="O25:O30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="N40:N44"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="N61:N66"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O61:O66"/>
+    <mergeCell ref="O67:O68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="4">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A12" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G12" si="1">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18"/>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="18"/>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="18"/>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="18"/>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
+++ b/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\账号管理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D5DDDE-3E59-4187-9BA1-1523D91F23F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="-48" windowWidth="22176" windowHeight="13116"/>
   </bookViews>
   <sheets>
     <sheet name="account info" sheetId="2" r:id="rId1"/>
     <sheet name="equipment info" sheetId="3" r:id="rId2"/>
     <sheet name="rom version" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="230">
   <si>
     <t>#</t>
   </si>
@@ -138,6 +132,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>测试账号</t>
@@ -158,6 +153,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>总部账号（中国）</t>
@@ -178,6 +174,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>门店账号（中国上海久光店）</t>
@@ -207,6 +204,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>门店账号（中国香港</t>
@@ -225,6 +223,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>店）</t>
@@ -269,6 +268,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>总部账号（日本）</t>
@@ -287,14 +287,12 @@
     <t>LS Harajyuku Flagship Store</t>
   </si>
   <si>
-    <t>LED*2 LCD*26</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>门店账号（日本东京涉谷店）</t>
@@ -330,6 +328,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吉卡</t>
@@ -359,6 +358,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼门店门头</t>
@@ -377,6 +377,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用</t>
@@ -394,6 +395,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>彤兴</t>
@@ -417,6 +419,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼大门左侧</t>
@@ -443,6 +446,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼大门右侧</t>
@@ -472,6 +476,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁</t>
@@ -498,6 +503,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（左上）</t>
@@ -524,6 +530,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（左下）</t>
@@ -544,6 +551,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（右上）</t>
@@ -564,6 +572,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（右下）</t>
@@ -584,6 +593,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（左上）</t>
@@ -607,6 +617,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（左下）</t>
@@ -627,6 +638,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（右上）</t>
@@ -647,6 +659,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（右下）</t>
@@ -667,6 +680,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁</t>
@@ -690,6 +704,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（左上）</t>
@@ -713,6 +728,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（左下）</t>
@@ -733,6 +749,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（右上）</t>
@@ -753,6 +770,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙左侧（右下）</t>
@@ -773,6 +791,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（左上）</t>
@@ -796,6 +815,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（左下）</t>
@@ -816,6 +836,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（右上）</t>
@@ -836,6 +857,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼装饰墙右侧（右下）</t>
@@ -856,6 +878,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁</t>
@@ -879,6 +902,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁拼接屏（左上）</t>
@@ -905,6 +929,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁拼接屏（左下）</t>
@@ -925,6 +950,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁拼接屏（中上）</t>
@@ -945,6 +971,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁拼接屏（中下）</t>
@@ -965,6 +992,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁拼接屏（右上）</t>
@@ -985,6 +1013,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼电梯旁拼接屏（右下）</t>
@@ -996,6 +1025,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备机</t>
@@ -1064,6 +1094,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙正面</t>
@@ -1090,6 +1121,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏（左）</t>
@@ -1117,6 +1149,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏（右）</t>
@@ -1137,6 +1170,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏</t>
@@ -1157,6 +1191,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏（上）</t>
@@ -1177,6 +1212,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏（下）</t>
@@ -1197,6 +1233,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙侧面（上）</t>
@@ -1223,6 +1260,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙侧面（中上）</t>
@@ -1243,6 +1281,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙侧面（中下）</t>
@@ -1263,6 +1302,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙侧面（下）</t>
@@ -1283,6 +1323,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一层大门顶部（左）</t>
@@ -1309,6 +1350,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一层大门顶部（中）</t>
@@ -1329,6 +1371,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一层大门顶部（右）</t>
@@ -1349,6 +1392,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏（右）</t>
@@ -1376,6 +1420,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏（左）</t>
@@ -1396,6 +1441,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏</t>
@@ -1416,6 +1462,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>勾边屏</t>
@@ -1436,6 +1483,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一层大门顶部（左）</t>
@@ -1462,6 +1510,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一层大门顶部（右）</t>
@@ -1482,6 +1531,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙左窗格</t>
@@ -1508,6 +1558,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙中窗格</t>
@@ -1531,6 +1582,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙右窗格</t>
@@ -1554,6 +1606,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙楼梯侧（左上）</t>
@@ -1580,6 +1633,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙楼梯侧（中上）</t>
@@ -1600,6 +1654,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙楼梯侧（右上）</t>
@@ -1620,6 +1675,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙楼梯侧（左下）</t>
@@ -1640,6 +1696,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙楼梯侧（中下）</t>
@@ -1660,6 +1717,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外墙楼梯侧（右上）</t>
@@ -1680,6 +1738,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二层手扶电梯侧（上）</t>
@@ -1706,6 +1765,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二层手扶电梯侧（下）</t>
@@ -1726,6 +1786,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼楼梯旁</t>
@@ -1749,6 +1810,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼直达电梯旁</t>
@@ -1772,6 +1834,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（左上）</t>
@@ -1795,6 +1858,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（左下）</t>
@@ -1815,6 +1879,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（右上）</t>
@@ -1835,6 +1900,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（右下）</t>
@@ -1855,6 +1921,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼直达电梯旁</t>
@@ -1878,6 +1945,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（左上）</t>
@@ -1901,6 +1969,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（左下）</t>
@@ -1921,6 +1990,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（右上）</t>
@@ -1947,6 +2017,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼中庭（右下）</t>
@@ -1981,13 +2052,77 @@
   </si>
   <si>
     <t>11.1.3</t>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Delhi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED*2 LCD*26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED*5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店账号（印度新德里）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部账号（印度）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMSIND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMSIND-DEL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED*1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部账号（马来西亚）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店账号（马来西亚吉隆坡）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMSMY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMSMY-KUL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2012,6 +2147,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2226,10 +2362,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,7 +2385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2521,31 +2657,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="2" customWidth="1"/>
     <col min="4" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.8984375" style="2" customWidth="1"/>
     <col min="11" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="2" customWidth="1"/>
     <col min="15" max="15" width="30" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2572,7 +2708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -2615,7 +2751,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2663,7 +2799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A19" si="0">ROW()-2</f>
         <v>2</v>
@@ -2699,7 +2835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2747,7 +2883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2795,7 +2931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2843,7 +2979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2879,7 +3015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2921,93 +3057,163 @@
         <v>28</v>
       </c>
       <c r="N9" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="D10" s="26"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="M11" s="11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>228</v>
+      </c>
       <c r="D12" s="26"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3027,7 +3233,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3047,7 +3253,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3067,7 +3273,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3087,7 +3293,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3107,7 +3313,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3127,8 +3333,8 @@
       <c r="N19" s="11"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15" customHeight="1"/>
+    <row r="29" spans="1:15">
       <c r="J29" s="27"/>
     </row>
   </sheetData>
@@ -3147,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3158,19 +3364,19 @@
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" style="2" customWidth="1"/>
     <col min="4" max="12" width="10" style="2" customWidth="1"/>
     <col min="13" max="13" width="30" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.296875" style="2" customWidth="1"/>
     <col min="15" max="15" width="30" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -3210,35 +3416,35 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3265,28 +3471,28 @@
         <v>3288</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A249" si="0">ROW()-2</f>
         <v>2</v>
@@ -3313,28 +3519,28 @@
         <v>3288</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3361,28 +3567,28 @@
         <v>3288</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="K5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3409,28 +3615,28 @@
         <v>3288</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="19" t="s">
+      <c r="N6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3457,28 +3663,28 @@
         <v>3288</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3505,24 +3711,24 @@
         <v>3288</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L8" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3549,24 +3755,24 @@
         <v>3288</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L9" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3593,24 +3799,24 @@
         <v>3288</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L10" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3637,28 +3843,28 @@
         <v>3288</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L11" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3685,24 +3891,24 @@
         <v>3288</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L12" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3729,24 +3935,24 @@
         <v>3288</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3773,24 +3979,24 @@
         <v>3288</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3817,28 +4023,28 @@
         <v>3288</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L15" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3865,28 +4071,28 @@
         <v>3288</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L16" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3913,24 +4119,24 @@
         <v>3288</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3957,24 +4163,24 @@
         <v>3288</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L18" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4001,24 +4207,24 @@
         <v>3288</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L19" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4045,28 +4251,28 @@
         <v>3288</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L20" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4093,24 +4299,24 @@
         <v>3288</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4137,24 +4343,24 @@
         <v>3288</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L22" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4181,24 +4387,24 @@
         <v>3288</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4225,28 +4431,28 @@
         <v>3288</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L24" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4273,28 +4479,28 @@
         <v>3288</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="O25" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="O25" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4321,24 +4527,24 @@
         <v>3288</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L26" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4365,24 +4571,24 @@
         <v>3288</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L27" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4409,24 +4615,24 @@
         <v>3288</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L28" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4453,24 +4659,24 @@
         <v>3288</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L29" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4497,24 +4703,24 @@
         <v>3288</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="L30" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4537,26 +4743,26 @@
         <v>3288</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M31" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N31" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4583,28 +4789,28 @@
         <v>3288</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="21" t="s">
+      <c r="N32" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="O32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="O32" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4631,28 +4837,28 @@
         <v>3288</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="M33" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4679,28 +4885,28 @@
         <v>3288</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L34" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="M34" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="O34" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="O34" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4727,28 +4933,28 @@
         <v>3288</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="L35" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="N35" s="36" t="s">
+      <c r="O35" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="O35" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4775,24 +4981,24 @@
         <v>3288</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K36" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="L36" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4819,24 +5025,24 @@
         <v>3288</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="L37" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4863,24 +5069,24 @@
         <v>3288</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="L38" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="38"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4907,28 +5113,28 @@
         <v>3288</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M39" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="O39" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="O39" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4955,28 +5161,28 @@
         <v>3288</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L40" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="O40" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="O40" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5003,24 +5209,24 @@
         <v>3288</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L41" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M41" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N41" s="37"/>
-      <c r="O41" s="34"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="35"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5047,24 +5253,24 @@
         <v>3288</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L42" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M42" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N42" s="37"/>
-      <c r="O42" s="34"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="35"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5091,24 +5297,24 @@
         <v>3288</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L43" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M43" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N43" s="37"/>
-      <c r="O43" s="34"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5135,24 +5341,24 @@
         <v>3288</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L44" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M44" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N44" s="38"/>
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="34"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5179,28 +5385,28 @@
         <v>3288</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L45" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M45" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="N45" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="N45" s="33" t="s">
+      <c r="O45" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="O45" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5227,24 +5433,24 @@
         <v>3288</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K46" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L46" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M46" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5271,24 +5477,24 @@
         <v>3288</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L47" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M47" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5315,24 +5521,24 @@
         <v>3288</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L48" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M48" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5359,28 +5565,28 @@
         <v>3288</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K49" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L49" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="N49" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="N49" s="33" t="s">
+      <c r="O49" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="O49" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5407,24 +5613,24 @@
         <v>3288</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L50" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M50" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5451,24 +5657,24 @@
         <v>3288</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L51" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M51" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5495,28 +5701,28 @@
         <v>3288</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L52" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M52" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N52" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="N52" s="39" t="s">
+      <c r="O52" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="O52" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5543,24 +5749,24 @@
         <v>3288</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L53" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M53" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N53" s="37"/>
-      <c r="O53" s="34"/>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="35"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5587,24 +5793,24 @@
         <v>3288</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L54" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M54" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N54" s="37"/>
-      <c r="O54" s="34"/>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="35"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5631,24 +5837,24 @@
         <v>3288</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M55" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N55" s="38"/>
-      <c r="O55" s="35"/>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="34"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5675,28 +5881,28 @@
         <v>3288</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L56" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M56" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="N56" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="N56" s="33" t="s">
+      <c r="O56" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="O56" s="33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5723,24 +5929,24 @@
         <v>3288</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K57" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L57" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L57" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M57" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-    </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5767,28 +5973,28 @@
         <v>3288</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L58" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M58" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N58" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="O58" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="O58" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5815,28 +6021,28 @@
         <v>3288</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L59" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M59" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O59" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="N59" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O59" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5863,28 +6069,28 @@
         <v>3288</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K60" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L60" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M60" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O60" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="N60" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O60" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5911,28 +6117,28 @@
         <v>3288</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K61" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L61" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M61" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N61" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="N61" s="33" t="s">
+      <c r="O61" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="O61" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5959,24 +6165,24 @@
         <v>3288</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K62" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L62" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M62" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-    </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6003,24 +6209,24 @@
         <v>3288</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K63" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L63" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M63" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1">
       <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6047,24 +6253,24 @@
         <v>3288</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K64" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L64" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M64" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-    </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+    </row>
+    <row r="65" spans="1:15" ht="15" customHeight="1">
       <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6091,24 +6297,24 @@
         <v>3288</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K65" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L65" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M65" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-    </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+    </row>
+    <row r="66" spans="1:15" ht="15" customHeight="1">
       <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6135,24 +6341,24 @@
         <v>3288</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K66" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L66" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M66" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-    </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+    </row>
+    <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6179,28 +6385,28 @@
         <v>3288</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K67" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L67" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M67" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N67" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="N67" s="33" t="s">
+      <c r="O67" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="O67" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:15" ht="15" customHeight="1">
       <c r="A68" s="5">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6227,24 +6433,24 @@
         <v>3288</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L68" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="M68" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-    </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+    </row>
+    <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="5">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -6271,28 +6477,28 @@
         <v>3288</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M69" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O69" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="N69" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O69" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:15" ht="15" customHeight="1">
       <c r="A70" s="5">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -6319,28 +6525,28 @@
         <v>3288</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M70" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O70" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N70" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O70" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15" ht="15" customHeight="1">
       <c r="A71" s="5">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -6367,28 +6573,28 @@
         <v>3288</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M71" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="N71" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O71" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="N71" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="O71" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:15" ht="15" customHeight="1">
       <c r="A72" s="5">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -6415,24 +6621,24 @@
         <v>3288</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-    </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" customHeight="1">
       <c r="A73" s="5">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -6459,24 +6665,24 @@
         <v>3288</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-    </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -6503,24 +6709,24 @@
         <v>3288</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J74" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-    </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1">
       <c r="A75" s="5">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -6547,28 +6753,28 @@
         <v>3288</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M75" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="N75" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O75" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="N75" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O75" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:15" ht="15" customHeight="1">
       <c r="A76" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -6595,28 +6801,28 @@
         <v>3288</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M76" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="N76" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O76" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="N76" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="O76" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -6643,24 +6849,24 @@
         <v>3288</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-    </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+    </row>
+    <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="5">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -6687,24 +6893,24 @@
         <v>3288</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-    </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+    </row>
+    <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -6725,30 +6931,30 @@
         <v>152440</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H79" s="7">
         <v>3288</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J79" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L79" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M79" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="K79" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L79" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M79" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="5">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6768,7 +6974,7 @@
       <c r="N80" s="19"/>
       <c r="O80" s="19"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" s="5">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -6788,7 +6994,7 @@
       <c r="N81" s="19"/>
       <c r="O81" s="19"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -6808,7 +7014,7 @@
       <c r="N82" s="19"/>
       <c r="O82" s="19"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83" s="5">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -6828,7 +7034,7 @@
       <c r="N83" s="19"/>
       <c r="O83" s="19"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84" s="5">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -6848,7 +7054,7 @@
       <c r="N84" s="19"/>
       <c r="O84" s="19"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" s="5">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -6868,7 +7074,7 @@
       <c r="N85" s="19"/>
       <c r="O85" s="19"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" s="5">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -6888,7 +7094,7 @@
       <c r="N86" s="19"/>
       <c r="O86" s="19"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" s="5">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -6908,7 +7114,7 @@
       <c r="N87" s="19"/>
       <c r="O87" s="19"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" s="5">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -6928,7 +7134,7 @@
       <c r="N88" s="19"/>
       <c r="O88" s="19"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" s="5">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -6948,7 +7154,7 @@
       <c r="N89" s="19"/>
       <c r="O89" s="19"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="5">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -6968,7 +7174,7 @@
       <c r="N90" s="19"/>
       <c r="O90" s="19"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -6988,7 +7194,7 @@
       <c r="N91" s="19"/>
       <c r="O91" s="19"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" s="5">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -7008,7 +7214,7 @@
       <c r="N92" s="19"/>
       <c r="O92" s="19"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="5">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -7028,7 +7234,7 @@
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="5">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -7048,7 +7254,7 @@
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="5">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -7068,7 +7274,7 @@
       <c r="N95" s="19"/>
       <c r="O95" s="19"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" s="5">
         <f t="shared" si="0"/>
         <v>94</v>
@@ -7088,7 +7294,7 @@
       <c r="N96" s="19"/>
       <c r="O96" s="19"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" s="5">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -7108,7 +7314,7 @@
       <c r="N97" s="19"/>
       <c r="O97" s="19"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" s="5">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -7128,7 +7334,7 @@
       <c r="N98" s="19"/>
       <c r="O98" s="19"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="5">
         <f t="shared" si="0"/>
         <v>97</v>
@@ -7148,7 +7354,7 @@
       <c r="N99" s="19"/>
       <c r="O99" s="19"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
@@ -7168,7 +7374,7 @@
       <c r="N100" s="19"/>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -7188,7 +7394,7 @@
       <c r="N101" s="19"/>
       <c r="O101" s="19"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -7208,7 +7414,7 @@
       <c r="N102" s="19"/>
       <c r="O102" s="19"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="5">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -7228,7 +7434,7 @@
       <c r="N103" s="19"/>
       <c r="O103" s="19"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -7248,7 +7454,7 @@
       <c r="N104" s="19"/>
       <c r="O104" s="19"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" s="5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -7268,7 +7474,7 @@
       <c r="N105" s="19"/>
       <c r="O105" s="19"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" s="5">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -7288,7 +7494,7 @@
       <c r="N106" s="19"/>
       <c r="O106" s="19"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -7308,7 +7514,7 @@
       <c r="N107" s="19"/>
       <c r="O107" s="19"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="5">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -7328,7 +7534,7 @@
       <c r="N108" s="19"/>
       <c r="O108" s="19"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" s="5">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -7348,7 +7554,7 @@
       <c r="N109" s="19"/>
       <c r="O109" s="19"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="5">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -7368,7 +7574,7 @@
       <c r="N110" s="19"/>
       <c r="O110" s="19"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" s="5">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -7388,7 +7594,7 @@
       <c r="N111" s="19"/>
       <c r="O111" s="19"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" s="5">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -7408,7 +7614,7 @@
       <c r="N112" s="19"/>
       <c r="O112" s="19"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15">
       <c r="A113" s="5">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -7428,7 +7634,7 @@
       <c r="N113" s="19"/>
       <c r="O113" s="19"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" s="5">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -7448,7 +7654,7 @@
       <c r="N114" s="19"/>
       <c r="O114" s="19"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" s="5">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -7468,7 +7674,7 @@
       <c r="N115" s="19"/>
       <c r="O115" s="19"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" s="5">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -7488,7 +7694,7 @@
       <c r="N116" s="19"/>
       <c r="O116" s="19"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" s="5">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -7508,7 +7714,7 @@
       <c r="N117" s="19"/>
       <c r="O117" s="19"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15">
       <c r="A118" s="5">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -7528,7 +7734,7 @@
       <c r="N118" s="19"/>
       <c r="O118" s="19"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="A119" s="5">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -7548,7 +7754,7 @@
       <c r="N119" s="19"/>
       <c r="O119" s="19"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" s="5">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -7568,7 +7774,7 @@
       <c r="N120" s="19"/>
       <c r="O120" s="19"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="A121" s="5">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -7588,7 +7794,7 @@
       <c r="N121" s="19"/>
       <c r="O121" s="19"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15">
       <c r="A122" s="5">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -7608,7 +7814,7 @@
       <c r="N122" s="19"/>
       <c r="O122" s="19"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" s="5">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -7628,7 +7834,7 @@
       <c r="N123" s="19"/>
       <c r="O123" s="19"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15">
       <c r="A124" s="5">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -7648,7 +7854,7 @@
       <c r="N124" s="19"/>
       <c r="O124" s="19"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15">
       <c r="A125" s="5">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -7668,7 +7874,7 @@
       <c r="N125" s="19"/>
       <c r="O125" s="19"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15">
       <c r="A126" s="5">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -7688,7 +7894,7 @@
       <c r="N126" s="19"/>
       <c r="O126" s="19"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15">
       <c r="A127" s="5">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -7708,7 +7914,7 @@
       <c r="N127" s="19"/>
       <c r="O127" s="19"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15">
       <c r="A128" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -7728,7 +7934,7 @@
       <c r="N128" s="19"/>
       <c r="O128" s="19"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15">
       <c r="A129" s="5">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -7748,7 +7954,7 @@
       <c r="N129" s="19"/>
       <c r="O129" s="19"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15">
       <c r="A130" s="5">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -7768,7 +7974,7 @@
       <c r="N130" s="19"/>
       <c r="O130" s="19"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15">
       <c r="A131" s="5">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -7788,7 +7994,7 @@
       <c r="N131" s="19"/>
       <c r="O131" s="19"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15">
       <c r="A132" s="5">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -7808,7 +8014,7 @@
       <c r="N132" s="19"/>
       <c r="O132" s="19"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15">
       <c r="A133" s="5">
         <f t="shared" si="0"/>
         <v>131</v>
@@ -7828,7 +8034,7 @@
       <c r="N133" s="19"/>
       <c r="O133" s="19"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15">
       <c r="A134" s="5">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -7848,7 +8054,7 @@
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15">
       <c r="A135" s="5">
         <f t="shared" si="0"/>
         <v>133</v>
@@ -7868,7 +8074,7 @@
       <c r="N135" s="19"/>
       <c r="O135" s="19"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15">
       <c r="A136" s="5">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -7888,7 +8094,7 @@
       <c r="N136" s="19"/>
       <c r="O136" s="19"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15">
       <c r="A137" s="5">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -7908,7 +8114,7 @@
       <c r="N137" s="19"/>
       <c r="O137" s="19"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15">
       <c r="A138" s="5">
         <f t="shared" si="0"/>
         <v>136</v>
@@ -7928,7 +8134,7 @@
       <c r="N138" s="19"/>
       <c r="O138" s="19"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15">
       <c r="A139" s="5">
         <f t="shared" si="0"/>
         <v>137</v>
@@ -7948,7 +8154,7 @@
       <c r="N139" s="19"/>
       <c r="O139" s="19"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15">
       <c r="A140" s="5">
         <f t="shared" si="0"/>
         <v>138</v>
@@ -7968,7 +8174,7 @@
       <c r="N140" s="19"/>
       <c r="O140" s="19"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15">
       <c r="A141" s="5">
         <f t="shared" si="0"/>
         <v>139</v>
@@ -7988,7 +8194,7 @@
       <c r="N141" s="19"/>
       <c r="O141" s="19"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15">
       <c r="A142" s="5">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -8008,7 +8214,7 @@
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15">
       <c r="A143" s="5">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -8028,7 +8234,7 @@
       <c r="N143" s="19"/>
       <c r="O143" s="19"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15">
       <c r="A144" s="5">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -8048,7 +8254,7 @@
       <c r="N144" s="19"/>
       <c r="O144" s="19"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15">
       <c r="A145" s="5">
         <f t="shared" si="0"/>
         <v>143</v>
@@ -8068,7 +8274,7 @@
       <c r="N145" s="19"/>
       <c r="O145" s="19"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15">
       <c r="A146" s="5">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -8088,7 +8294,7 @@
       <c r="N146" s="19"/>
       <c r="O146" s="19"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15">
       <c r="A147" s="5">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -8108,7 +8314,7 @@
       <c r="N147" s="19"/>
       <c r="O147" s="19"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15">
       <c r="A148" s="5">
         <f t="shared" si="0"/>
         <v>146</v>
@@ -8128,7 +8334,7 @@
       <c r="N148" s="19"/>
       <c r="O148" s="19"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15">
       <c r="A149" s="5">
         <f t="shared" si="0"/>
         <v>147</v>
@@ -8148,7 +8354,7 @@
       <c r="N149" s="19"/>
       <c r="O149" s="19"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15">
       <c r="A150" s="5">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -8168,7 +8374,7 @@
       <c r="N150" s="19"/>
       <c r="O150" s="19"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15">
       <c r="A151" s="5">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -8188,7 +8394,7 @@
       <c r="N151" s="19"/>
       <c r="O151" s="19"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15">
       <c r="A152" s="5">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -8208,7 +8414,7 @@
       <c r="N152" s="19"/>
       <c r="O152" s="19"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15">
       <c r="A153" s="5">
         <f t="shared" si="0"/>
         <v>151</v>
@@ -8228,7 +8434,7 @@
       <c r="N153" s="19"/>
       <c r="O153" s="19"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15">
       <c r="A154" s="5">
         <f t="shared" si="0"/>
         <v>152</v>
@@ -8248,7 +8454,7 @@
       <c r="N154" s="19"/>
       <c r="O154" s="19"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15">
       <c r="A155" s="5">
         <f t="shared" si="0"/>
         <v>153</v>
@@ -8268,7 +8474,7 @@
       <c r="N155" s="19"/>
       <c r="O155" s="19"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15">
       <c r="A156" s="5">
         <f t="shared" si="0"/>
         <v>154</v>
@@ -8288,7 +8494,7 @@
       <c r="N156" s="19"/>
       <c r="O156" s="19"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15">
       <c r="A157" s="5">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -8308,7 +8514,7 @@
       <c r="N157" s="19"/>
       <c r="O157" s="19"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15">
       <c r="A158" s="5">
         <f t="shared" si="0"/>
         <v>156</v>
@@ -8328,7 +8534,7 @@
       <c r="N158" s="19"/>
       <c r="O158" s="19"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15">
       <c r="A159" s="5">
         <f t="shared" si="0"/>
         <v>157</v>
@@ -8348,7 +8554,7 @@
       <c r="N159" s="19"/>
       <c r="O159" s="19"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15">
       <c r="A160" s="5">
         <f t="shared" si="0"/>
         <v>158</v>
@@ -8368,7 +8574,7 @@
       <c r="N160" s="19"/>
       <c r="O160" s="19"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" s="5">
         <f t="shared" si="0"/>
         <v>159</v>
@@ -8388,7 +8594,7 @@
       <c r="N161" s="19"/>
       <c r="O161" s="19"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" s="5">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -8408,7 +8614,7 @@
       <c r="N162" s="19"/>
       <c r="O162" s="19"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15">
       <c r="A163" s="5">
         <f t="shared" si="0"/>
         <v>161</v>
@@ -8428,7 +8634,7 @@
       <c r="N163" s="19"/>
       <c r="O163" s="19"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15">
       <c r="A164" s="5">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -8448,7 +8654,7 @@
       <c r="N164" s="19"/>
       <c r="O164" s="19"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15">
       <c r="A165" s="5">
         <f t="shared" si="0"/>
         <v>163</v>
@@ -8468,7 +8674,7 @@
       <c r="N165" s="19"/>
       <c r="O165" s="19"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15">
       <c r="A166" s="5">
         <f t="shared" si="0"/>
         <v>164</v>
@@ -8488,7 +8694,7 @@
       <c r="N166" s="19"/>
       <c r="O166" s="19"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15">
       <c r="A167" s="5">
         <f t="shared" si="0"/>
         <v>165</v>
@@ -8508,7 +8714,7 @@
       <c r="N167" s="19"/>
       <c r="O167" s="19"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15">
       <c r="A168" s="5">
         <f t="shared" si="0"/>
         <v>166</v>
@@ -8528,7 +8734,7 @@
       <c r="N168" s="19"/>
       <c r="O168" s="19"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15">
       <c r="A169" s="5">
         <f t="shared" si="0"/>
         <v>167</v>
@@ -8548,7 +8754,7 @@
       <c r="N169" s="19"/>
       <c r="O169" s="19"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15">
       <c r="A170" s="5">
         <f t="shared" si="0"/>
         <v>168</v>
@@ -8568,7 +8774,7 @@
       <c r="N170" s="19"/>
       <c r="O170" s="19"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15">
       <c r="A171" s="5">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -8588,7 +8794,7 @@
       <c r="N171" s="19"/>
       <c r="O171" s="19"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15">
       <c r="A172" s="5">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -8608,7 +8814,7 @@
       <c r="N172" s="19"/>
       <c r="O172" s="19"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15">
       <c r="A173" s="5">
         <f t="shared" si="0"/>
         <v>171</v>
@@ -8628,7 +8834,7 @@
       <c r="N173" s="19"/>
       <c r="O173" s="19"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="A174" s="5">
         <f t="shared" si="0"/>
         <v>172</v>
@@ -8648,7 +8854,7 @@
       <c r="N174" s="19"/>
       <c r="O174" s="19"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="A175" s="5">
         <f t="shared" si="0"/>
         <v>173</v>
@@ -8668,7 +8874,7 @@
       <c r="N175" s="19"/>
       <c r="O175" s="19"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15">
       <c r="A176" s="5">
         <f t="shared" si="0"/>
         <v>174</v>
@@ -8688,7 +8894,7 @@
       <c r="N176" s="19"/>
       <c r="O176" s="19"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15">
       <c r="A177" s="5">
         <f t="shared" si="0"/>
         <v>175</v>
@@ -8708,7 +8914,7 @@
       <c r="N177" s="19"/>
       <c r="O177" s="19"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15">
       <c r="A178" s="5">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -8728,7 +8934,7 @@
       <c r="N178" s="19"/>
       <c r="O178" s="19"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15">
       <c r="A179" s="5">
         <f t="shared" si="0"/>
         <v>177</v>
@@ -8748,7 +8954,7 @@
       <c r="N179" s="19"/>
       <c r="O179" s="19"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15">
       <c r="A180" s="5">
         <f t="shared" si="0"/>
         <v>178</v>
@@ -8768,7 +8974,7 @@
       <c r="N180" s="19"/>
       <c r="O180" s="19"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15">
       <c r="A181" s="5">
         <f t="shared" si="0"/>
         <v>179</v>
@@ -8788,7 +8994,7 @@
       <c r="N181" s="19"/>
       <c r="O181" s="19"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15">
       <c r="A182" s="5">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -8808,7 +9014,7 @@
       <c r="N182" s="19"/>
       <c r="O182" s="19"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15">
       <c r="A183" s="5">
         <f t="shared" si="0"/>
         <v>181</v>
@@ -8828,7 +9034,7 @@
       <c r="N183" s="19"/>
       <c r="O183" s="19"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15">
       <c r="A184" s="5">
         <f t="shared" si="0"/>
         <v>182</v>
@@ -8848,7 +9054,7 @@
       <c r="N184" s="19"/>
       <c r="O184" s="19"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15">
       <c r="A185" s="5">
         <f t="shared" si="0"/>
         <v>183</v>
@@ -8868,7 +9074,7 @@
       <c r="N185" s="19"/>
       <c r="O185" s="19"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15">
       <c r="A186" s="5">
         <f t="shared" si="0"/>
         <v>184</v>
@@ -8888,7 +9094,7 @@
       <c r="N186" s="19"/>
       <c r="O186" s="19"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15">
       <c r="A187" s="5">
         <f t="shared" si="0"/>
         <v>185</v>
@@ -8908,7 +9114,7 @@
       <c r="N187" s="19"/>
       <c r="O187" s="19"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15">
       <c r="A188" s="5">
         <f t="shared" si="0"/>
         <v>186</v>
@@ -8928,7 +9134,7 @@
       <c r="N188" s="19"/>
       <c r="O188" s="19"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15">
       <c r="A189" s="5">
         <f t="shared" si="0"/>
         <v>187</v>
@@ -8948,7 +9154,7 @@
       <c r="N189" s="19"/>
       <c r="O189" s="19"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15">
       <c r="A190" s="5">
         <f t="shared" si="0"/>
         <v>188</v>
@@ -8968,7 +9174,7 @@
       <c r="N190" s="19"/>
       <c r="O190" s="19"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15">
       <c r="A191" s="5">
         <f t="shared" si="0"/>
         <v>189</v>
@@ -8988,7 +9194,7 @@
       <c r="N191" s="19"/>
       <c r="O191" s="19"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15">
       <c r="A192" s="5">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -9008,7 +9214,7 @@
       <c r="N192" s="19"/>
       <c r="O192" s="19"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15">
       <c r="A193" s="5">
         <f t="shared" si="0"/>
         <v>191</v>
@@ -9028,7 +9234,7 @@
       <c r="N193" s="19"/>
       <c r="O193" s="19"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15">
       <c r="A194" s="5">
         <f t="shared" si="0"/>
         <v>192</v>
@@ -9048,7 +9254,7 @@
       <c r="N194" s="19"/>
       <c r="O194" s="19"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15">
       <c r="A195" s="5">
         <f t="shared" si="0"/>
         <v>193</v>
@@ -9068,7 +9274,7 @@
       <c r="N195" s="19"/>
       <c r="O195" s="19"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15">
       <c r="A196" s="5">
         <f t="shared" si="0"/>
         <v>194</v>
@@ -9088,7 +9294,7 @@
       <c r="N196" s="19"/>
       <c r="O196" s="19"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15">
       <c r="A197" s="5">
         <f t="shared" si="0"/>
         <v>195</v>
@@ -9108,7 +9314,7 @@
       <c r="N197" s="19"/>
       <c r="O197" s="19"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15">
       <c r="A198" s="5">
         <f t="shared" si="0"/>
         <v>196</v>
@@ -9128,7 +9334,7 @@
       <c r="N198" s="19"/>
       <c r="O198" s="19"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15">
       <c r="A199" s="5">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -9148,7 +9354,7 @@
       <c r="N199" s="19"/>
       <c r="O199" s="19"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15">
       <c r="A200" s="5">
         <f t="shared" si="0"/>
         <v>198</v>
@@ -9168,7 +9374,7 @@
       <c r="N200" s="19"/>
       <c r="O200" s="19"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15">
       <c r="A201" s="5">
         <f t="shared" si="0"/>
         <v>199</v>
@@ -9188,7 +9394,7 @@
       <c r="N201" s="19"/>
       <c r="O201" s="19"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15">
       <c r="A202" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -9208,7 +9414,7 @@
       <c r="N202" s="19"/>
       <c r="O202" s="19"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15">
       <c r="A203" s="5">
         <f t="shared" si="0"/>
         <v>201</v>
@@ -9228,7 +9434,7 @@
       <c r="N203" s="19"/>
       <c r="O203" s="19"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15">
       <c r="A204" s="5">
         <f t="shared" si="0"/>
         <v>202</v>
@@ -9248,7 +9454,7 @@
       <c r="N204" s="19"/>
       <c r="O204" s="19"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15">
       <c r="A205" s="5">
         <f t="shared" si="0"/>
         <v>203</v>
@@ -9268,7 +9474,7 @@
       <c r="N205" s="19"/>
       <c r="O205" s="19"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15">
       <c r="A206" s="5">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -9288,7 +9494,7 @@
       <c r="N206" s="19"/>
       <c r="O206" s="19"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15">
       <c r="A207" s="5">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -9308,7 +9514,7 @@
       <c r="N207" s="19"/>
       <c r="O207" s="19"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15">
       <c r="A208" s="5">
         <f t="shared" si="0"/>
         <v>206</v>
@@ -9328,7 +9534,7 @@
       <c r="N208" s="19"/>
       <c r="O208" s="19"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15">
       <c r="A209" s="5">
         <f t="shared" si="0"/>
         <v>207</v>
@@ -9348,7 +9554,7 @@
       <c r="N209" s="19"/>
       <c r="O209" s="19"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15">
       <c r="A210" s="5">
         <f t="shared" si="0"/>
         <v>208</v>
@@ -9368,7 +9574,7 @@
       <c r="N210" s="19"/>
       <c r="O210" s="19"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15">
       <c r="A211" s="5">
         <f t="shared" si="0"/>
         <v>209</v>
@@ -9388,7 +9594,7 @@
       <c r="N211" s="19"/>
       <c r="O211" s="19"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15">
       <c r="A212" s="5">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -9408,7 +9614,7 @@
       <c r="N212" s="19"/>
       <c r="O212" s="19"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15">
       <c r="A213" s="5">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -9428,7 +9634,7 @@
       <c r="N213" s="19"/>
       <c r="O213" s="19"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15">
       <c r="A214" s="5">
         <f t="shared" si="0"/>
         <v>212</v>
@@ -9448,7 +9654,7 @@
       <c r="N214" s="19"/>
       <c r="O214" s="19"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15">
       <c r="A215" s="5">
         <f t="shared" si="0"/>
         <v>213</v>
@@ -9468,7 +9674,7 @@
       <c r="N215" s="19"/>
       <c r="O215" s="19"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15">
       <c r="A216" s="5">
         <f t="shared" si="0"/>
         <v>214</v>
@@ -9488,7 +9694,7 @@
       <c r="N216" s="19"/>
       <c r="O216" s="19"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15">
       <c r="A217" s="5">
         <f t="shared" si="0"/>
         <v>215</v>
@@ -9508,7 +9714,7 @@
       <c r="N217" s="19"/>
       <c r="O217" s="19"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15">
       <c r="A218" s="5">
         <f t="shared" si="0"/>
         <v>216</v>
@@ -9528,7 +9734,7 @@
       <c r="N218" s="19"/>
       <c r="O218" s="19"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15">
       <c r="A219" s="5">
         <f t="shared" si="0"/>
         <v>217</v>
@@ -9548,7 +9754,7 @@
       <c r="N219" s="19"/>
       <c r="O219" s="19"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15">
       <c r="A220" s="5">
         <f t="shared" si="0"/>
         <v>218</v>
@@ -9568,7 +9774,7 @@
       <c r="N220" s="19"/>
       <c r="O220" s="19"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15">
       <c r="A221" s="5">
         <f t="shared" si="0"/>
         <v>219</v>
@@ -9588,7 +9794,7 @@
       <c r="N221" s="19"/>
       <c r="O221" s="19"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15">
       <c r="A222" s="5">
         <f t="shared" si="0"/>
         <v>220</v>
@@ -9608,7 +9814,7 @@
       <c r="N222" s="19"/>
       <c r="O222" s="19"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15">
       <c r="A223" s="5">
         <f t="shared" si="0"/>
         <v>221</v>
@@ -9628,7 +9834,7 @@
       <c r="N223" s="19"/>
       <c r="O223" s="19"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15">
       <c r="A224" s="5">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -9648,7 +9854,7 @@
       <c r="N224" s="19"/>
       <c r="O224" s="19"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15">
       <c r="A225" s="5">
         <f t="shared" si="0"/>
         <v>223</v>
@@ -9668,7 +9874,7 @@
       <c r="N225" s="19"/>
       <c r="O225" s="19"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15">
       <c r="A226" s="5">
         <f t="shared" si="0"/>
         <v>224</v>
@@ -9688,7 +9894,7 @@
       <c r="N226" s="19"/>
       <c r="O226" s="19"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15">
       <c r="A227" s="5">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -9708,7 +9914,7 @@
       <c r="N227" s="19"/>
       <c r="O227" s="19"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15">
       <c r="A228" s="5">
         <f t="shared" si="0"/>
         <v>226</v>
@@ -9728,7 +9934,7 @@
       <c r="N228" s="19"/>
       <c r="O228" s="19"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15">
       <c r="A229" s="5">
         <f t="shared" si="0"/>
         <v>227</v>
@@ -9748,7 +9954,7 @@
       <c r="N229" s="19"/>
       <c r="O229" s="19"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15">
       <c r="A230" s="5">
         <f t="shared" si="0"/>
         <v>228</v>
@@ -9768,7 +9974,7 @@
       <c r="N230" s="19"/>
       <c r="O230" s="19"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15">
       <c r="A231" s="5">
         <f t="shared" si="0"/>
         <v>229</v>
@@ -9788,7 +9994,7 @@
       <c r="N231" s="19"/>
       <c r="O231" s="19"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15">
       <c r="A232" s="5">
         <f t="shared" si="0"/>
         <v>230</v>
@@ -9808,7 +10014,7 @@
       <c r="N232" s="19"/>
       <c r="O232" s="19"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15">
       <c r="A233" s="5">
         <f t="shared" si="0"/>
         <v>231</v>
@@ -9828,7 +10034,7 @@
       <c r="N233" s="19"/>
       <c r="O233" s="19"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15">
       <c r="A234" s="5">
         <f t="shared" si="0"/>
         <v>232</v>
@@ -9848,7 +10054,7 @@
       <c r="N234" s="19"/>
       <c r="O234" s="19"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15">
       <c r="A235" s="5">
         <f t="shared" si="0"/>
         <v>233</v>
@@ -9868,7 +10074,7 @@
       <c r="N235" s="19"/>
       <c r="O235" s="19"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15">
       <c r="A236" s="5">
         <f t="shared" si="0"/>
         <v>234</v>
@@ -9888,7 +10094,7 @@
       <c r="N236" s="19"/>
       <c r="O236" s="19"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15">
       <c r="A237" s="5">
         <f t="shared" si="0"/>
         <v>235</v>
@@ -9908,7 +10114,7 @@
       <c r="N237" s="19"/>
       <c r="O237" s="19"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15">
       <c r="A238" s="5">
         <f t="shared" si="0"/>
         <v>236</v>
@@ -9928,7 +10134,7 @@
       <c r="N238" s="19"/>
       <c r="O238" s="19"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15">
       <c r="A239" s="5">
         <f t="shared" si="0"/>
         <v>237</v>
@@ -9948,7 +10154,7 @@
       <c r="N239" s="19"/>
       <c r="O239" s="19"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15">
       <c r="A240" s="5">
         <f t="shared" si="0"/>
         <v>238</v>
@@ -9968,7 +10174,7 @@
       <c r="N240" s="19"/>
       <c r="O240" s="19"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15">
       <c r="A241" s="5">
         <f t="shared" si="0"/>
         <v>239</v>
@@ -9988,7 +10194,7 @@
       <c r="N241" s="19"/>
       <c r="O241" s="19"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15">
       <c r="A242" s="5">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -10008,7 +10214,7 @@
       <c r="N242" s="19"/>
       <c r="O242" s="19"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15">
       <c r="A243" s="5">
         <f t="shared" si="0"/>
         <v>241</v>
@@ -10028,7 +10234,7 @@
       <c r="N243" s="19"/>
       <c r="O243" s="19"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15">
       <c r="A244" s="5">
         <f t="shared" si="0"/>
         <v>242</v>
@@ -10048,7 +10254,7 @@
       <c r="N244" s="19"/>
       <c r="O244" s="19"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15">
       <c r="A245" s="5">
         <f t="shared" si="0"/>
         <v>243</v>
@@ -10068,7 +10274,7 @@
       <c r="N245" s="19"/>
       <c r="O245" s="19"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15">
       <c r="A246" s="5">
         <f t="shared" si="0"/>
         <v>244</v>
@@ -10088,7 +10294,7 @@
       <c r="N246" s="19"/>
       <c r="O246" s="19"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15">
       <c r="A247" s="5">
         <f t="shared" si="0"/>
         <v>245</v>
@@ -10108,7 +10314,7 @@
       <c r="N247" s="19"/>
       <c r="O247" s="19"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15">
       <c r="A248" s="5">
         <f t="shared" si="0"/>
         <v>246</v>
@@ -10128,7 +10334,7 @@
       <c r="N248" s="19"/>
       <c r="O248" s="19"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15">
       <c r="A249" s="5">
         <f t="shared" si="0"/>
         <v>247</v>
@@ -10148,27 +10354,21 @@
       <c r="N249" s="19"/>
       <c r="O249" s="19"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15">
       <c r="J250" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="O25:O30"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="N40:N44"/>
     <mergeCell ref="O52:O55"/>
     <mergeCell ref="O56:O57"/>
     <mergeCell ref="O61:O66"/>
@@ -10177,16 +10377,22 @@
     <mergeCell ref="N52:N55"/>
     <mergeCell ref="N56:N57"/>
     <mergeCell ref="N61:N66"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="N40:N44"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O25:O30"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="N76:N79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10195,33 +10401,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="30" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="8.8984375" style="2"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
     <col min="8" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" style="2" customWidth="1"/>
     <col min="11" max="11" width="30" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="12" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -10232,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
@@ -10240,148 +10446,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12">
       <c r="A2" s="31"/>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="29"/>
       <c r="G2" s="31"/>
       <c r="H2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="G3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G12" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
@@ -10392,7 +10598,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10410,7 +10616,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10428,7 +10634,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10446,7 +10652,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10464,7 +10670,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10482,7 +10688,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>

--- a/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
+++ b/2019/总体管理/账号管理/Levi's CMS system accounts and equipments List.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="234">
   <si>
     <t>#</t>
   </si>
@@ -2115,6 +2115,22 @@
   </si>
   <si>
     <t>CMSMY-KUL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMSCHN-BJ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMSCHN-HZ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hangzhou</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2362,10 +2378,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2664,7 +2680,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4"/>
@@ -3219,12 +3235,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3239,12 +3265,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3725,8 +3761,8 @@
       <c r="M8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="5">
@@ -3769,8 +3805,8 @@
       <c r="M9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="5">
@@ -3813,8 +3849,8 @@
       <c r="M10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="5">
@@ -3905,8 +3941,8 @@
       <c r="M12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="5">
@@ -3949,8 +3985,8 @@
       <c r="M13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="5">
@@ -3993,8 +4029,8 @@
       <c r="M14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="5">
@@ -4133,8 +4169,8 @@
       <c r="M17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="5">
@@ -4177,8 +4213,8 @@
       <c r="M18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="5">
@@ -4221,8 +4257,8 @@
       <c r="M19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="5">
@@ -4313,8 +4349,8 @@
       <c r="M21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5">
@@ -4357,8 +4393,8 @@
       <c r="M22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="5">
@@ -4401,8 +4437,8 @@
       <c r="M23" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="5">
@@ -4541,8 +4577,8 @@
       <c r="M26" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="5">
@@ -4585,8 +4621,8 @@
       <c r="M27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="5">
@@ -4629,8 +4665,8 @@
       <c r="M28" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="5">
@@ -4673,8 +4709,8 @@
       <c r="M29" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="5">
@@ -4717,8 +4753,8 @@
       <c r="M30" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="5">
@@ -5224,7 +5260,7 @@
         <v>142</v>
       </c>
       <c r="N41" s="37"/>
-      <c r="O41" s="35"/>
+      <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="5">
@@ -5268,7 +5304,7 @@
         <v>143</v>
       </c>
       <c r="N42" s="37"/>
-      <c r="O42" s="35"/>
+      <c r="O42" s="34"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="5">
@@ -5312,7 +5348,7 @@
         <v>144</v>
       </c>
       <c r="N43" s="37"/>
-      <c r="O43" s="35"/>
+      <c r="O43" s="34"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="5">
@@ -5356,7 +5392,7 @@
         <v>145</v>
       </c>
       <c r="N44" s="38"/>
-      <c r="O44" s="34"/>
+      <c r="O44" s="35"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="5">
@@ -5447,8 +5483,8 @@
       <c r="M46" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="5">
@@ -5491,8 +5527,8 @@
       <c r="M47" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="5">
@@ -5535,8 +5571,8 @@
       <c r="M48" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="5">
@@ -5627,8 +5663,8 @@
       <c r="M50" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="5">
@@ -5671,8 +5707,8 @@
       <c r="M51" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="5">
@@ -5764,7 +5800,7 @@
         <v>160</v>
       </c>
       <c r="N53" s="37"/>
-      <c r="O53" s="35"/>
+      <c r="O53" s="34"/>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="5">
@@ -5808,7 +5844,7 @@
         <v>161</v>
       </c>
       <c r="N54" s="37"/>
-      <c r="O54" s="35"/>
+      <c r="O54" s="34"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="5">
@@ -5852,7 +5888,7 @@
         <v>162</v>
       </c>
       <c r="N55" s="38"/>
-      <c r="O55" s="34"/>
+      <c r="O55" s="35"/>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1">
       <c r="A56" s="5">
@@ -5943,8 +5979,8 @@
       <c r="M57" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1">
       <c r="A58" s="5">
@@ -6179,8 +6215,8 @@
       <c r="M62" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="5">
@@ -6223,8 +6259,8 @@
       <c r="M63" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1">
       <c r="A64" s="5">
@@ -6267,8 +6303,8 @@
       <c r="M64" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1">
       <c r="A65" s="5">
@@ -6311,8 +6347,8 @@
       <c r="M65" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1">
       <c r="A66" s="5">
@@ -6355,8 +6391,8 @@
       <c r="M66" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="5">
@@ -6447,8 +6483,8 @@
       <c r="M68" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="5">
@@ -6635,8 +6671,8 @@
       <c r="M72" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1">
       <c r="A73" s="5">
@@ -6679,8 +6715,8 @@
       <c r="M73" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="5">
@@ -6723,8 +6759,8 @@
       <c r="M74" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1">
       <c r="A75" s="5">
@@ -6863,8 +6899,8 @@
       <c r="M77" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="5">
@@ -6907,8 +6943,8 @@
       <c r="M78" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="5">
@@ -6951,8 +6987,8 @@
       <c r="M79" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="5">
@@ -10359,16 +10395,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="N40:N44"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="O25:O30"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O49:O51"/>
     <mergeCell ref="O52:O55"/>
     <mergeCell ref="O56:O57"/>
     <mergeCell ref="O61:O66"/>
@@ -10377,22 +10419,16 @@
     <mergeCell ref="N52:N55"/>
     <mergeCell ref="N56:N57"/>
     <mergeCell ref="N61:N66"/>
-    <mergeCell ref="O25:O30"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="N40:N44"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="N11:N14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
